--- a/Assets/10.Data/TileDataTable.xlsx
+++ b/Assets/10.Data/TileDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Project_60Days\Assets\10.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05729849-C0AC-4F4A-AB61-326A40D25F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142F532E-B85F-471F-9668-70F8B7220248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,16 +241,10 @@
     <t>TileSwarmMaxCount</t>
   </si>
   <si>
-    <t>RemainPossibility_Metal</t>
-  </si>
-  <si>
     <t>RemainPossibility_Carbon</t>
   </si>
   <si>
     <t>RemainPossibility_Plasma</t>
-  </si>
-  <si>
-    <t>RemainPossibility_Pawder</t>
   </si>
   <si>
     <t>RemainPossibility_Gas</t>
@@ -303,6 +297,14 @@
   <si>
     <t>네오 도시</t>
   </si>
+  <si>
+    <t>RemainPossibility_STEEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemainPossibility_Powder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -319,6 +321,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -447,14 +451,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +678,7 @@
   <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -699,7 +703,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -746,8 +750,8 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
@@ -761,42 +765,42 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>1001</v>
@@ -829,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N3" s="4">
         <v>-1</v>
@@ -842,9 +846,9 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A4" s="8"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4">
         <v>1002</v>
@@ -877,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N4" s="4">
         <v>-1</v>
@@ -890,9 +894,9 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A5" s="8"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4">
         <v>1003</v>
@@ -925,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N5" s="4">
         <v>-1</v>
@@ -938,9 +942,9 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>1004</v>
@@ -973,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N6" s="4">
         <v>-1</v>
@@ -986,9 +990,9 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
         <v>1005</v>
@@ -1021,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N7" s="4">
         <v>-1</v>
@@ -1060,7 +1064,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>1007</v>
@@ -1086,7 +1090,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A10" s="8"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
         <v>1008</v>
@@ -1112,7 +1116,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
         <v>1009</v>
@@ -1138,7 +1142,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
         <v>1010</v>
@@ -1164,7 +1168,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
         <v>1011</v>
@@ -1190,7 +1194,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
         <v>1012</v>
@@ -1216,7 +1220,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
         <v>1013</v>
@@ -1242,7 +1246,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A16" s="8"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
         <v>1014</v>
@@ -1268,7 +1272,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
         <v>1015</v>
@@ -1294,7 +1298,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A18" s="8"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
         <v>1016</v>
@@ -1320,7 +1324,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
         <v>1017</v>
@@ -1372,7 +1376,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A21" s="8"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
         <v>1019</v>
@@ -1398,7 +1402,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
         <v>1020</v>
@@ -1450,7 +1454,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A24" s="8"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
         <v>1022</v>
@@ -1476,7 +1480,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A25" s="8"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
         <v>1023</v>
@@ -1502,7 +1506,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
         <v>1024</v>
@@ -1528,7 +1532,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A27" s="8"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
         <v>1025</v>
@@ -1554,7 +1558,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A28" s="8"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
         <v>1026</v>
@@ -1580,7 +1584,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
         <v>1027</v>
@@ -1606,7 +1610,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A30" s="8"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
         <v>1028</v>
@@ -1632,7 +1636,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A31" s="8"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
         <v>1029</v>
@@ -1658,7 +1662,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A32" s="8"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
         <v>1030</v>
@@ -1684,7 +1688,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A33" s="8"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
         <v>1031</v>
@@ -1710,7 +1714,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
         <v>1032</v>
@@ -1736,7 +1740,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
         <v>1033</v>
@@ -1762,7 +1766,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
         <v>1034</v>
@@ -1788,7 +1792,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
         <v>1035</v>
@@ -1814,7 +1818,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
         <v>1036</v>
@@ -1840,7 +1844,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
         <v>1037</v>
@@ -1866,7 +1870,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
         <v>1038</v>
@@ -1892,7 +1896,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A41" s="8"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
         <v>1039</v>
@@ -1918,7 +1922,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A42" s="8"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
         <v>1040</v>
@@ -1944,7 +1948,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A43" s="8"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
         <v>1041</v>
@@ -1970,7 +1974,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A44" s="8"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
         <v>1042</v>
@@ -1996,7 +2000,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A45" s="8"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
         <v>1043</v>
@@ -2022,7 +2026,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A46" s="8"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
         <v>1044</v>
@@ -2048,7 +2052,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A47" s="6"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
         <v>1045</v>
